--- a/Banco Central/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/Manufacturero 2002 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="243">
   <si>
     <t>Serie</t>
   </si>
@@ -740,6 +740,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M234"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6913,7 +6916,7 @@
         <v>230</v>
       </c>
       <c r="B223">
-        <v>89.67</v>
+        <v>89.59</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -7001,7 +7004,15 @@
         <v>241</v>
       </c>
       <c r="B234">
-        <v>100.82</v>
+        <v>100.7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>242</v>
+      </c>
+      <c r="B235">
+        <v>102.65</v>
       </c>
     </row>
   </sheetData>
